--- a/PANDAS/DATOS/pepinillos.xlsx
+++ b/PANDAS/DATOS/pepinillos.xlsx
@@ -14,60 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Macronutrientes</t>
-  </si>
-  <si>
-    <t>Hidratos de carbono</t>
-  </si>
-  <si>
-    <t>4,50 g</t>
-  </si>
-  <si>
-    <t>Proteína (Ver ranking)</t>
-  </si>
-  <si>
-    <t>1,70 g</t>
-  </si>
-  <si>
-    <t>Fibra (Ver ranking)</t>
-  </si>
-  <si>
-    <t>1,20 g</t>
-  </si>
-  <si>
-    <t>Omega 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0590 g  </t>
-  </si>
-  <si>
-    <t>Grasas monoinsaturadas</t>
-  </si>
-  <si>
-    <t>0 g</t>
-  </si>
-  <si>
-    <t>Proteína Animal</t>
-  </si>
-  <si>
-    <t>Agua</t>
-  </si>
-  <si>
-    <t>92,60 g</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Grasas poliinsaturadas</t>
-  </si>
-  <si>
-    <t>Proteína vegetal</t>
-  </si>
-  <si>
-    <t>Omega 3</t>
+    <t>DA-PromoC-modulo2-sprint1-VannaMina</t>
   </si>
 </sst>
 </file>
@@ -425,99 +374,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
